--- a/docs/testing/2021-11-27-01/T000017图层参数对话框测试.xlsx
+++ b/docs/testing/2021-11-27-01/T000017图层参数对话框测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\docs\testing\2021-11-27-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9C435C-C226-4D7A-BC3E-B5B09903FB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C4E551-33EE-47CD-AC19-584D2BA80DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{20DA2BEF-9469-4F7D-9F61-3651835C6068}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
   <si>
     <t>编号</t>
   </si>
@@ -3294,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3420FCF0-6D70-4DA9-8C04-828EBD1DDF9A}">
   <dimension ref="A2:AO115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AM60" sqref="AM60:AO61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="AM70" sqref="AM70:AO71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4827,7 +4827,9 @@
       <c r="AJ38" s="32"/>
       <c r="AK38" s="32"/>
       <c r="AL38" s="33"/>
-      <c r="AM38" s="37"/>
+      <c r="AM38" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN38" s="38"/>
       <c r="AO38" s="38"/>
     </row>
@@ -5193,20 +5195,20 @@
       <c r="X46" s="32"/>
       <c r="Y46" s="32"/>
       <c r="Z46" s="33"/>
-      <c r="AA46" s="31" t="s">
+      <c r="AA46" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="AB46" s="32"/>
-      <c r="AC46" s="32"/>
-      <c r="AD46" s="32"/>
-      <c r="AE46" s="32"/>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="32"/>
-      <c r="AH46" s="32"/>
-      <c r="AI46" s="32"/>
-      <c r="AJ46" s="32"/>
-      <c r="AK46" s="32"/>
-      <c r="AL46" s="33"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="47"/>
+      <c r="AH46" s="47"/>
+      <c r="AI46" s="47"/>
+      <c r="AJ46" s="47"/>
+      <c r="AK46" s="47"/>
+      <c r="AL46" s="48"/>
       <c r="AM46" s="37" t="s">
         <v>27</v>
       </c>
@@ -5240,18 +5242,18 @@
       <c r="X47" s="35"/>
       <c r="Y47" s="35"/>
       <c r="Z47" s="36"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="35"/>
-      <c r="AC47" s="35"/>
-      <c r="AD47" s="35"/>
-      <c r="AE47" s="35"/>
-      <c r="AF47" s="35"/>
-      <c r="AG47" s="35"/>
-      <c r="AH47" s="35"/>
-      <c r="AI47" s="35"/>
-      <c r="AJ47" s="35"/>
-      <c r="AK47" s="35"/>
-      <c r="AL47" s="36"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="50"/>
+      <c r="AC47" s="50"/>
+      <c r="AD47" s="50"/>
+      <c r="AE47" s="50"/>
+      <c r="AF47" s="50"/>
+      <c r="AG47" s="50"/>
+      <c r="AH47" s="50"/>
+      <c r="AI47" s="50"/>
+      <c r="AJ47" s="50"/>
+      <c r="AK47" s="50"/>
+      <c r="AL47" s="51"/>
       <c r="AM47" s="39"/>
       <c r="AN47" s="40"/>
       <c r="AO47" s="40"/>
@@ -5289,20 +5291,20 @@
       <c r="X48" s="32"/>
       <c r="Y48" s="32"/>
       <c r="Z48" s="33"/>
-      <c r="AA48" s="31" t="s">
+      <c r="AA48" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="AB48" s="32"/>
-      <c r="AC48" s="32"/>
-      <c r="AD48" s="32"/>
-      <c r="AE48" s="32"/>
-      <c r="AF48" s="32"/>
-      <c r="AG48" s="32"/>
-      <c r="AH48" s="32"/>
-      <c r="AI48" s="32"/>
-      <c r="AJ48" s="32"/>
-      <c r="AK48" s="32"/>
-      <c r="AL48" s="33"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="47"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="47"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="47"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="47"/>
+      <c r="AL48" s="48"/>
       <c r="AM48" s="37" t="s">
         <v>27</v>
       </c>
@@ -5336,18 +5338,18 @@
       <c r="X49" s="35"/>
       <c r="Y49" s="35"/>
       <c r="Z49" s="36"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="35"/>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="36"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="50"/>
+      <c r="AL49" s="51"/>
       <c r="AM49" s="39"/>
       <c r="AN49" s="40"/>
       <c r="AO49" s="40"/>
@@ -5385,20 +5387,20 @@
       <c r="X50" s="32"/>
       <c r="Y50" s="32"/>
       <c r="Z50" s="33"/>
-      <c r="AA50" s="31" t="s">
+      <c r="AA50" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="32"/>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="32"/>
-      <c r="AJ50" s="32"/>
-      <c r="AK50" s="32"/>
-      <c r="AL50" s="33"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="47"/>
+      <c r="AG50" s="47"/>
+      <c r="AH50" s="47"/>
+      <c r="AI50" s="47"/>
+      <c r="AJ50" s="47"/>
+      <c r="AK50" s="47"/>
+      <c r="AL50" s="48"/>
       <c r="AM50" s="37" t="s">
         <v>27</v>
       </c>
@@ -5432,18 +5434,18 @@
       <c r="X51" s="35"/>
       <c r="Y51" s="35"/>
       <c r="Z51" s="36"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="35"/>
-      <c r="AI51" s="35"/>
-      <c r="AJ51" s="35"/>
-      <c r="AK51" s="35"/>
-      <c r="AL51" s="36"/>
+      <c r="AA51" s="49"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="50"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="50"/>
+      <c r="AI51" s="50"/>
+      <c r="AJ51" s="50"/>
+      <c r="AK51" s="50"/>
+      <c r="AL51" s="51"/>
       <c r="AM51" s="39"/>
       <c r="AN51" s="40"/>
       <c r="AO51" s="40"/>
@@ -5481,20 +5483,20 @@
       <c r="X52" s="32"/>
       <c r="Y52" s="32"/>
       <c r="Z52" s="33"/>
-      <c r="AA52" s="31" t="s">
+      <c r="AA52" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AB52" s="32"/>
-      <c r="AC52" s="32"/>
-      <c r="AD52" s="32"/>
-      <c r="AE52" s="32"/>
-      <c r="AF52" s="32"/>
-      <c r="AG52" s="32"/>
-      <c r="AH52" s="32"/>
-      <c r="AI52" s="32"/>
-      <c r="AJ52" s="32"/>
-      <c r="AK52" s="32"/>
-      <c r="AL52" s="33"/>
+      <c r="AB52" s="47"/>
+      <c r="AC52" s="47"/>
+      <c r="AD52" s="47"/>
+      <c r="AE52" s="47"/>
+      <c r="AF52" s="47"/>
+      <c r="AG52" s="47"/>
+      <c r="AH52" s="47"/>
+      <c r="AI52" s="47"/>
+      <c r="AJ52" s="47"/>
+      <c r="AK52" s="47"/>
+      <c r="AL52" s="48"/>
       <c r="AM52" s="37" t="s">
         <v>27</v>
       </c>
@@ -5528,18 +5530,18 @@
       <c r="X53" s="35"/>
       <c r="Y53" s="35"/>
       <c r="Z53" s="36"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35"/>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="35"/>
-      <c r="AH53" s="35"/>
-      <c r="AI53" s="35"/>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="35"/>
-      <c r="AL53" s="36"/>
+      <c r="AA53" s="49"/>
+      <c r="AB53" s="50"/>
+      <c r="AC53" s="50"/>
+      <c r="AD53" s="50"/>
+      <c r="AE53" s="50"/>
+      <c r="AF53" s="50"/>
+      <c r="AG53" s="50"/>
+      <c r="AH53" s="50"/>
+      <c r="AI53" s="50"/>
+      <c r="AJ53" s="50"/>
+      <c r="AK53" s="50"/>
+      <c r="AL53" s="51"/>
       <c r="AM53" s="39"/>
       <c r="AN53" s="40"/>
       <c r="AO53" s="40"/>
@@ -5577,20 +5579,20 @@
       <c r="X54" s="32"/>
       <c r="Y54" s="32"/>
       <c r="Z54" s="33"/>
-      <c r="AA54" s="31" t="s">
+      <c r="AA54" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AB54" s="32"/>
-      <c r="AC54" s="32"/>
-      <c r="AD54" s="32"/>
-      <c r="AE54" s="32"/>
-      <c r="AF54" s="32"/>
-      <c r="AG54" s="32"/>
-      <c r="AH54" s="32"/>
-      <c r="AI54" s="32"/>
-      <c r="AJ54" s="32"/>
-      <c r="AK54" s="32"/>
-      <c r="AL54" s="33"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
+      <c r="AD54" s="47"/>
+      <c r="AE54" s="47"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="47"/>
+      <c r="AH54" s="47"/>
+      <c r="AI54" s="47"/>
+      <c r="AJ54" s="47"/>
+      <c r="AK54" s="47"/>
+      <c r="AL54" s="48"/>
       <c r="AM54" s="37" t="s">
         <v>27</v>
       </c>
@@ -5624,18 +5626,18 @@
       <c r="X55" s="35"/>
       <c r="Y55" s="35"/>
       <c r="Z55" s="36"/>
-      <c r="AA55" s="34"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="35"/>
-      <c r="AI55" s="35"/>
-      <c r="AJ55" s="35"/>
-      <c r="AK55" s="35"/>
-      <c r="AL55" s="36"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="50"/>
+      <c r="AD55" s="50"/>
+      <c r="AE55" s="50"/>
+      <c r="AF55" s="50"/>
+      <c r="AG55" s="50"/>
+      <c r="AH55" s="50"/>
+      <c r="AI55" s="50"/>
+      <c r="AJ55" s="50"/>
+      <c r="AK55" s="50"/>
+      <c r="AL55" s="51"/>
       <c r="AM55" s="39"/>
       <c r="AN55" s="40"/>
       <c r="AO55" s="40"/>
@@ -5673,20 +5675,20 @@
       <c r="X56" s="32"/>
       <c r="Y56" s="32"/>
       <c r="Z56" s="33"/>
-      <c r="AA56" s="31" t="s">
+      <c r="AA56" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AB56" s="32"/>
-      <c r="AC56" s="32"/>
-      <c r="AD56" s="32"/>
-      <c r="AE56" s="32"/>
-      <c r="AF56" s="32"/>
-      <c r="AG56" s="32"/>
-      <c r="AH56" s="32"/>
-      <c r="AI56" s="32"/>
-      <c r="AJ56" s="32"/>
-      <c r="AK56" s="32"/>
-      <c r="AL56" s="33"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
+      <c r="AD56" s="47"/>
+      <c r="AE56" s="47"/>
+      <c r="AF56" s="47"/>
+      <c r="AG56" s="47"/>
+      <c r="AH56" s="47"/>
+      <c r="AI56" s="47"/>
+      <c r="AJ56" s="47"/>
+      <c r="AK56" s="47"/>
+      <c r="AL56" s="48"/>
       <c r="AM56" s="37" t="s">
         <v>27</v>
       </c>
@@ -5720,18 +5722,18 @@
       <c r="X57" s="35"/>
       <c r="Y57" s="35"/>
       <c r="Z57" s="36"/>
-      <c r="AA57" s="34"/>
-      <c r="AB57" s="35"/>
-      <c r="AC57" s="35"/>
-      <c r="AD57" s="35"/>
-      <c r="AE57" s="35"/>
-      <c r="AF57" s="35"/>
-      <c r="AG57" s="35"/>
-      <c r="AH57" s="35"/>
-      <c r="AI57" s="35"/>
-      <c r="AJ57" s="35"/>
-      <c r="AK57" s="35"/>
-      <c r="AL57" s="36"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="50"/>
+      <c r="AC57" s="50"/>
+      <c r="AD57" s="50"/>
+      <c r="AE57" s="50"/>
+      <c r="AF57" s="50"/>
+      <c r="AG57" s="50"/>
+      <c r="AH57" s="50"/>
+      <c r="AI57" s="50"/>
+      <c r="AJ57" s="50"/>
+      <c r="AK57" s="50"/>
+      <c r="AL57" s="51"/>
       <c r="AM57" s="39"/>
       <c r="AN57" s="40"/>
       <c r="AO57" s="40"/>
@@ -5769,20 +5771,20 @@
       <c r="X58" s="32"/>
       <c r="Y58" s="32"/>
       <c r="Z58" s="33"/>
-      <c r="AA58" s="31" t="s">
+      <c r="AA58" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AB58" s="32"/>
-      <c r="AC58" s="32"/>
-      <c r="AD58" s="32"/>
-      <c r="AE58" s="32"/>
-      <c r="AF58" s="32"/>
-      <c r="AG58" s="32"/>
-      <c r="AH58" s="32"/>
-      <c r="AI58" s="32"/>
-      <c r="AJ58" s="32"/>
-      <c r="AK58" s="32"/>
-      <c r="AL58" s="33"/>
+      <c r="AB58" s="47"/>
+      <c r="AC58" s="47"/>
+      <c r="AD58" s="47"/>
+      <c r="AE58" s="47"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="47"/>
+      <c r="AH58" s="47"/>
+      <c r="AI58" s="47"/>
+      <c r="AJ58" s="47"/>
+      <c r="AK58" s="47"/>
+      <c r="AL58" s="48"/>
       <c r="AM58" s="37" t="s">
         <v>27</v>
       </c>
@@ -5816,18 +5818,18 @@
       <c r="X59" s="35"/>
       <c r="Y59" s="35"/>
       <c r="Z59" s="36"/>
-      <c r="AA59" s="34"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="35"/>
-      <c r="AE59" s="35"/>
-      <c r="AF59" s="35"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35"/>
-      <c r="AI59" s="35"/>
-      <c r="AJ59" s="35"/>
-      <c r="AK59" s="35"/>
-      <c r="AL59" s="36"/>
+      <c r="AA59" s="49"/>
+      <c r="AB59" s="50"/>
+      <c r="AC59" s="50"/>
+      <c r="AD59" s="50"/>
+      <c r="AE59" s="50"/>
+      <c r="AF59" s="50"/>
+      <c r="AG59" s="50"/>
+      <c r="AH59" s="50"/>
+      <c r="AI59" s="50"/>
+      <c r="AJ59" s="50"/>
+      <c r="AK59" s="50"/>
+      <c r="AL59" s="51"/>
       <c r="AM59" s="39"/>
       <c r="AN59" s="40"/>
       <c r="AO59" s="40"/>
@@ -5865,18 +5867,18 @@
       <c r="X60" s="32"/>
       <c r="Y60" s="32"/>
       <c r="Z60" s="33"/>
-      <c r="AA60" s="31"/>
-      <c r="AB60" s="32"/>
-      <c r="AC60" s="32"/>
-      <c r="AD60" s="32"/>
-      <c r="AE60" s="32"/>
-      <c r="AF60" s="32"/>
-      <c r="AG60" s="32"/>
-      <c r="AH60" s="32"/>
-      <c r="AI60" s="32"/>
-      <c r="AJ60" s="32"/>
-      <c r="AK60" s="32"/>
-      <c r="AL60" s="33"/>
+      <c r="AA60" s="46"/>
+      <c r="AB60" s="47"/>
+      <c r="AC60" s="47"/>
+      <c r="AD60" s="47"/>
+      <c r="AE60" s="47"/>
+      <c r="AF60" s="47"/>
+      <c r="AG60" s="47"/>
+      <c r="AH60" s="47"/>
+      <c r="AI60" s="47"/>
+      <c r="AJ60" s="47"/>
+      <c r="AK60" s="47"/>
+      <c r="AL60" s="48"/>
       <c r="AM60" s="37" t="s">
         <v>27</v>
       </c>
@@ -5910,18 +5912,18 @@
       <c r="X61" s="35"/>
       <c r="Y61" s="35"/>
       <c r="Z61" s="36"/>
-      <c r="AA61" s="34"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
-      <c r="AD61" s="35"/>
-      <c r="AE61" s="35"/>
-      <c r="AF61" s="35"/>
-      <c r="AG61" s="35"/>
-      <c r="AH61" s="35"/>
-      <c r="AI61" s="35"/>
-      <c r="AJ61" s="35"/>
-      <c r="AK61" s="35"/>
-      <c r="AL61" s="36"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="50"/>
+      <c r="AC61" s="50"/>
+      <c r="AD61" s="50"/>
+      <c r="AE61" s="50"/>
+      <c r="AF61" s="50"/>
+      <c r="AG61" s="50"/>
+      <c r="AH61" s="50"/>
+      <c r="AI61" s="50"/>
+      <c r="AJ61" s="50"/>
+      <c r="AK61" s="50"/>
+      <c r="AL61" s="51"/>
       <c r="AM61" s="39"/>
       <c r="AN61" s="40"/>
       <c r="AO61" s="40"/>
@@ -5959,20 +5961,20 @@
       <c r="X62" s="32"/>
       <c r="Y62" s="32"/>
       <c r="Z62" s="33"/>
-      <c r="AA62" s="31" t="s">
+      <c r="AA62" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="AB62" s="32"/>
-      <c r="AC62" s="32"/>
-      <c r="AD62" s="32"/>
-      <c r="AE62" s="32"/>
-      <c r="AF62" s="32"/>
-      <c r="AG62" s="32"/>
-      <c r="AH62" s="32"/>
-      <c r="AI62" s="32"/>
-      <c r="AJ62" s="32"/>
-      <c r="AK62" s="32"/>
-      <c r="AL62" s="33"/>
+      <c r="AB62" s="47"/>
+      <c r="AC62" s="47"/>
+      <c r="AD62" s="47"/>
+      <c r="AE62" s="47"/>
+      <c r="AF62" s="47"/>
+      <c r="AG62" s="47"/>
+      <c r="AH62" s="47"/>
+      <c r="AI62" s="47"/>
+      <c r="AJ62" s="47"/>
+      <c r="AK62" s="47"/>
+      <c r="AL62" s="48"/>
       <c r="AM62" s="37" t="s">
         <v>27</v>
       </c>
@@ -6006,18 +6008,18 @@
       <c r="X63" s="35"/>
       <c r="Y63" s="35"/>
       <c r="Z63" s="36"/>
-      <c r="AA63" s="34"/>
-      <c r="AB63" s="35"/>
-      <c r="AC63" s="35"/>
-      <c r="AD63" s="35"/>
-      <c r="AE63" s="35"/>
-      <c r="AF63" s="35"/>
-      <c r="AG63" s="35"/>
-      <c r="AH63" s="35"/>
-      <c r="AI63" s="35"/>
-      <c r="AJ63" s="35"/>
-      <c r="AK63" s="35"/>
-      <c r="AL63" s="36"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="50"/>
+      <c r="AC63" s="50"/>
+      <c r="AD63" s="50"/>
+      <c r="AE63" s="50"/>
+      <c r="AF63" s="50"/>
+      <c r="AG63" s="50"/>
+      <c r="AH63" s="50"/>
+      <c r="AI63" s="50"/>
+      <c r="AJ63" s="50"/>
+      <c r="AK63" s="50"/>
+      <c r="AL63" s="51"/>
       <c r="AM63" s="39"/>
       <c r="AN63" s="40"/>
       <c r="AO63" s="40"/>
@@ -6055,20 +6057,20 @@
       <c r="X64" s="32"/>
       <c r="Y64" s="32"/>
       <c r="Z64" s="33"/>
-      <c r="AA64" s="31" t="s">
+      <c r="AA64" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AB64" s="32"/>
-      <c r="AC64" s="32"/>
-      <c r="AD64" s="32"/>
-      <c r="AE64" s="32"/>
-      <c r="AF64" s="32"/>
-      <c r="AG64" s="32"/>
-      <c r="AH64" s="32"/>
-      <c r="AI64" s="32"/>
-      <c r="AJ64" s="32"/>
-      <c r="AK64" s="32"/>
-      <c r="AL64" s="33"/>
+      <c r="AB64" s="47"/>
+      <c r="AC64" s="47"/>
+      <c r="AD64" s="47"/>
+      <c r="AE64" s="47"/>
+      <c r="AF64" s="47"/>
+      <c r="AG64" s="47"/>
+      <c r="AH64" s="47"/>
+      <c r="AI64" s="47"/>
+      <c r="AJ64" s="47"/>
+      <c r="AK64" s="47"/>
+      <c r="AL64" s="48"/>
       <c r="AM64" s="37" t="s">
         <v>27</v>
       </c>
@@ -6102,18 +6104,18 @@
       <c r="X65" s="35"/>
       <c r="Y65" s="35"/>
       <c r="Z65" s="36"/>
-      <c r="AA65" s="34"/>
-      <c r="AB65" s="35"/>
-      <c r="AC65" s="35"/>
-      <c r="AD65" s="35"/>
-      <c r="AE65" s="35"/>
-      <c r="AF65" s="35"/>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="35"/>
-      <c r="AI65" s="35"/>
-      <c r="AJ65" s="35"/>
-      <c r="AK65" s="35"/>
-      <c r="AL65" s="36"/>
+      <c r="AA65" s="49"/>
+      <c r="AB65" s="50"/>
+      <c r="AC65" s="50"/>
+      <c r="AD65" s="50"/>
+      <c r="AE65" s="50"/>
+      <c r="AF65" s="50"/>
+      <c r="AG65" s="50"/>
+      <c r="AH65" s="50"/>
+      <c r="AI65" s="50"/>
+      <c r="AJ65" s="50"/>
+      <c r="AK65" s="50"/>
+      <c r="AL65" s="51"/>
       <c r="AM65" s="39"/>
       <c r="AN65" s="40"/>
       <c r="AO65" s="40"/>
@@ -6151,20 +6153,20 @@
       <c r="X66" s="32"/>
       <c r="Y66" s="32"/>
       <c r="Z66" s="33"/>
-      <c r="AA66" s="31" t="s">
+      <c r="AA66" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AB66" s="32"/>
-      <c r="AC66" s="32"/>
-      <c r="AD66" s="32"/>
-      <c r="AE66" s="32"/>
-      <c r="AF66" s="32"/>
-      <c r="AG66" s="32"/>
-      <c r="AH66" s="32"/>
-      <c r="AI66" s="32"/>
-      <c r="AJ66" s="32"/>
-      <c r="AK66" s="32"/>
-      <c r="AL66" s="33"/>
+      <c r="AB66" s="47"/>
+      <c r="AC66" s="47"/>
+      <c r="AD66" s="47"/>
+      <c r="AE66" s="47"/>
+      <c r="AF66" s="47"/>
+      <c r="AG66" s="47"/>
+      <c r="AH66" s="47"/>
+      <c r="AI66" s="47"/>
+      <c r="AJ66" s="47"/>
+      <c r="AK66" s="47"/>
+      <c r="AL66" s="48"/>
       <c r="AM66" s="37" t="s">
         <v>27</v>
       </c>
@@ -6198,18 +6200,18 @@
       <c r="X67" s="35"/>
       <c r="Y67" s="35"/>
       <c r="Z67" s="36"/>
-      <c r="AA67" s="34"/>
-      <c r="AB67" s="35"/>
-      <c r="AC67" s="35"/>
-      <c r="AD67" s="35"/>
-      <c r="AE67" s="35"/>
-      <c r="AF67" s="35"/>
-      <c r="AG67" s="35"/>
-      <c r="AH67" s="35"/>
-      <c r="AI67" s="35"/>
-      <c r="AJ67" s="35"/>
-      <c r="AK67" s="35"/>
-      <c r="AL67" s="36"/>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="50"/>
+      <c r="AC67" s="50"/>
+      <c r="AD67" s="50"/>
+      <c r="AE67" s="50"/>
+      <c r="AF67" s="50"/>
+      <c r="AG67" s="50"/>
+      <c r="AH67" s="50"/>
+      <c r="AI67" s="50"/>
+      <c r="AJ67" s="50"/>
+      <c r="AK67" s="50"/>
+      <c r="AL67" s="51"/>
       <c r="AM67" s="39"/>
       <c r="AN67" s="40"/>
       <c r="AO67" s="40"/>
@@ -6247,20 +6249,20 @@
       <c r="X68" s="32"/>
       <c r="Y68" s="32"/>
       <c r="Z68" s="33"/>
-      <c r="AA68" s="31" t="s">
+      <c r="AA68" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AB68" s="32"/>
-      <c r="AC68" s="32"/>
-      <c r="AD68" s="32"/>
-      <c r="AE68" s="32"/>
-      <c r="AF68" s="32"/>
-      <c r="AG68" s="32"/>
-      <c r="AH68" s="32"/>
-      <c r="AI68" s="32"/>
-      <c r="AJ68" s="32"/>
-      <c r="AK68" s="32"/>
-      <c r="AL68" s="33"/>
+      <c r="AB68" s="47"/>
+      <c r="AC68" s="47"/>
+      <c r="AD68" s="47"/>
+      <c r="AE68" s="47"/>
+      <c r="AF68" s="47"/>
+      <c r="AG68" s="47"/>
+      <c r="AH68" s="47"/>
+      <c r="AI68" s="47"/>
+      <c r="AJ68" s="47"/>
+      <c r="AK68" s="47"/>
+      <c r="AL68" s="48"/>
       <c r="AM68" s="37" t="s">
         <v>27</v>
       </c>
@@ -6294,18 +6296,18 @@
       <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
       <c r="Z69" s="36"/>
-      <c r="AA69" s="34"/>
-      <c r="AB69" s="35"/>
-      <c r="AC69" s="35"/>
-      <c r="AD69" s="35"/>
-      <c r="AE69" s="35"/>
-      <c r="AF69" s="35"/>
-      <c r="AG69" s="35"/>
-      <c r="AH69" s="35"/>
-      <c r="AI69" s="35"/>
-      <c r="AJ69" s="35"/>
-      <c r="AK69" s="35"/>
-      <c r="AL69" s="36"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="50"/>
+      <c r="AC69" s="50"/>
+      <c r="AD69" s="50"/>
+      <c r="AE69" s="50"/>
+      <c r="AF69" s="50"/>
+      <c r="AG69" s="50"/>
+      <c r="AH69" s="50"/>
+      <c r="AI69" s="50"/>
+      <c r="AJ69" s="50"/>
+      <c r="AK69" s="50"/>
+      <c r="AL69" s="51"/>
       <c r="AM69" s="39"/>
       <c r="AN69" s="40"/>
       <c r="AO69" s="40"/>
@@ -6343,20 +6345,20 @@
       <c r="X70" s="32"/>
       <c r="Y70" s="32"/>
       <c r="Z70" s="33"/>
-      <c r="AA70" s="31" t="s">
+      <c r="AA70" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AB70" s="32"/>
-      <c r="AC70" s="32"/>
-      <c r="AD70" s="32"/>
-      <c r="AE70" s="32"/>
-      <c r="AF70" s="32"/>
-      <c r="AG70" s="32"/>
-      <c r="AH70" s="32"/>
-      <c r="AI70" s="32"/>
-      <c r="AJ70" s="32"/>
-      <c r="AK70" s="32"/>
-      <c r="AL70" s="33"/>
+      <c r="AB70" s="47"/>
+      <c r="AC70" s="47"/>
+      <c r="AD70" s="47"/>
+      <c r="AE70" s="47"/>
+      <c r="AF70" s="47"/>
+      <c r="AG70" s="47"/>
+      <c r="AH70" s="47"/>
+      <c r="AI70" s="47"/>
+      <c r="AJ70" s="47"/>
+      <c r="AK70" s="47"/>
+      <c r="AL70" s="48"/>
       <c r="AM70" s="37" t="s">
         <v>27</v>
       </c>
@@ -6390,18 +6392,18 @@
       <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
       <c r="Z71" s="36"/>
-      <c r="AA71" s="34"/>
-      <c r="AB71" s="35"/>
-      <c r="AC71" s="35"/>
-      <c r="AD71" s="35"/>
-      <c r="AE71" s="35"/>
-      <c r="AF71" s="35"/>
-      <c r="AG71" s="35"/>
-      <c r="AH71" s="35"/>
-      <c r="AI71" s="35"/>
-      <c r="AJ71" s="35"/>
-      <c r="AK71" s="35"/>
-      <c r="AL71" s="36"/>
+      <c r="AA71" s="49"/>
+      <c r="AB71" s="50"/>
+      <c r="AC71" s="50"/>
+      <c r="AD71" s="50"/>
+      <c r="AE71" s="50"/>
+      <c r="AF71" s="50"/>
+      <c r="AG71" s="50"/>
+      <c r="AH71" s="50"/>
+      <c r="AI71" s="50"/>
+      <c r="AJ71" s="50"/>
+      <c r="AK71" s="50"/>
+      <c r="AL71" s="51"/>
       <c r="AM71" s="39"/>
       <c r="AN71" s="40"/>
       <c r="AO71" s="40"/>
@@ -6439,20 +6441,20 @@
       <c r="X72" s="32"/>
       <c r="Y72" s="32"/>
       <c r="Z72" s="33"/>
-      <c r="AA72" s="31" t="s">
+      <c r="AA72" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AB72" s="32"/>
-      <c r="AC72" s="32"/>
-      <c r="AD72" s="32"/>
-      <c r="AE72" s="32"/>
-      <c r="AF72" s="32"/>
-      <c r="AG72" s="32"/>
-      <c r="AH72" s="32"/>
-      <c r="AI72" s="32"/>
-      <c r="AJ72" s="32"/>
-      <c r="AK72" s="32"/>
-      <c r="AL72" s="33"/>
+      <c r="AB72" s="47"/>
+      <c r="AC72" s="47"/>
+      <c r="AD72" s="47"/>
+      <c r="AE72" s="47"/>
+      <c r="AF72" s="47"/>
+      <c r="AG72" s="47"/>
+      <c r="AH72" s="47"/>
+      <c r="AI72" s="47"/>
+      <c r="AJ72" s="47"/>
+      <c r="AK72" s="47"/>
+      <c r="AL72" s="48"/>
       <c r="AM72" s="37" t="s">
         <v>27</v>
       </c>
@@ -6486,18 +6488,18 @@
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
       <c r="Z73" s="36"/>
-      <c r="AA73" s="34"/>
-      <c r="AB73" s="35"/>
-      <c r="AC73" s="35"/>
-      <c r="AD73" s="35"/>
-      <c r="AE73" s="35"/>
-      <c r="AF73" s="35"/>
-      <c r="AG73" s="35"/>
-      <c r="AH73" s="35"/>
-      <c r="AI73" s="35"/>
-      <c r="AJ73" s="35"/>
-      <c r="AK73" s="35"/>
-      <c r="AL73" s="36"/>
+      <c r="AA73" s="49"/>
+      <c r="AB73" s="50"/>
+      <c r="AC73" s="50"/>
+      <c r="AD73" s="50"/>
+      <c r="AE73" s="50"/>
+      <c r="AF73" s="50"/>
+      <c r="AG73" s="50"/>
+      <c r="AH73" s="50"/>
+      <c r="AI73" s="50"/>
+      <c r="AJ73" s="50"/>
+      <c r="AK73" s="50"/>
+      <c r="AL73" s="51"/>
       <c r="AM73" s="39"/>
       <c r="AN73" s="40"/>
       <c r="AO73" s="40"/>
@@ -6535,20 +6537,20 @@
       <c r="X74" s="32"/>
       <c r="Y74" s="32"/>
       <c r="Z74" s="33"/>
-      <c r="AA74" s="31" t="s">
+      <c r="AA74" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AB74" s="32"/>
-      <c r="AC74" s="32"/>
-      <c r="AD74" s="32"/>
-      <c r="AE74" s="32"/>
-      <c r="AF74" s="32"/>
-      <c r="AG74" s="32"/>
-      <c r="AH74" s="32"/>
-      <c r="AI74" s="32"/>
-      <c r="AJ74" s="32"/>
-      <c r="AK74" s="32"/>
-      <c r="AL74" s="33"/>
+      <c r="AB74" s="47"/>
+      <c r="AC74" s="47"/>
+      <c r="AD74" s="47"/>
+      <c r="AE74" s="47"/>
+      <c r="AF74" s="47"/>
+      <c r="AG74" s="47"/>
+      <c r="AH74" s="47"/>
+      <c r="AI74" s="47"/>
+      <c r="AJ74" s="47"/>
+      <c r="AK74" s="47"/>
+      <c r="AL74" s="48"/>
       <c r="AM74" s="37" t="s">
         <v>27</v>
       </c>
@@ -6582,18 +6584,18 @@
       <c r="X75" s="35"/>
       <c r="Y75" s="35"/>
       <c r="Z75" s="36"/>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="35"/>
-      <c r="AC75" s="35"/>
-      <c r="AD75" s="35"/>
-      <c r="AE75" s="35"/>
-      <c r="AF75" s="35"/>
-      <c r="AG75" s="35"/>
-      <c r="AH75" s="35"/>
-      <c r="AI75" s="35"/>
-      <c r="AJ75" s="35"/>
-      <c r="AK75" s="35"/>
-      <c r="AL75" s="36"/>
+      <c r="AA75" s="49"/>
+      <c r="AB75" s="50"/>
+      <c r="AC75" s="50"/>
+      <c r="AD75" s="50"/>
+      <c r="AE75" s="50"/>
+      <c r="AF75" s="50"/>
+      <c r="AG75" s="50"/>
+      <c r="AH75" s="50"/>
+      <c r="AI75" s="50"/>
+      <c r="AJ75" s="50"/>
+      <c r="AK75" s="50"/>
+      <c r="AL75" s="51"/>
       <c r="AM75" s="39"/>
       <c r="AN75" s="40"/>
       <c r="AO75" s="40"/>
@@ -8624,20 +8626,6 @@
     <mergeCell ref="AA108:AL109"/>
     <mergeCell ref="AM108:AO109"/>
   </mergeCells>
-  <conditionalFormatting sqref="AM38:AO39">
-    <cfRule type="containsText" dxfId="42" priority="37" operator="containsText" text="未执行">
-      <formula>NOT(ISERROR(SEARCH("未执行",AM38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="挂起">
-      <formula>NOT(ISERROR(SEARCH("挂起",AM38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="49" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",AM38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="50" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",AM38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E7:AO8">
     <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Suspend">
       <formula>NOT(ISERROR(SEARCH("Suspend",E7)))</formula>
@@ -8649,18 +8637,18 @@
       <formula>NOT(ISERROR(SEARCH("Fail",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM76:AO115 AM40:AO61">
+  <conditionalFormatting sqref="AM76:AO115 AM38:AO61">
     <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="未执行">
-      <formula>NOT(ISERROR(SEARCH("未执行",AM40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未执行",AM38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="挂起">
-      <formula>NOT(ISERROR(SEARCH("挂起",AM40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("挂起",AM38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",AM40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",AM38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",AM40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",AM38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM62:AO75">
@@ -8677,7 +8665,7 @@
       <formula>NOT(ISERROR(SEARCH("Pass",AM62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AO6" xr:uid="{ECEF2431-72BF-4132-958B-B168D5AFA87D}">
       <formula1>"功能验证,修改验证,发布验证"</formula1>
     </dataValidation>
@@ -8693,14 +8681,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:AE5" xr:uid="{AC71F289-E99A-4BCB-B638-B8C816B1C000}">
       <formula1>"UI,图元操作,加工,Demo,下位机,通信连接,安全,其它"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM40:AO115" xr:uid="{FBD52FAE-8FC5-4A44-A57A-29B6EABDCA27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM38:AO115" xr:uid="{FBD52FAE-8FC5-4A44-A57A-29B6EABDCA27}">
       <formula1>"Pass,Fail,非执行,挂起"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:AO8" xr:uid="{50BC0DCA-D6B6-4DD1-AAFE-A220C75C0306}">
       <formula1>"Pass,Fail,Suspend"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM38:AO39" xr:uid="{ED1A11F7-52FD-49FE-8AFD-C898C547501E}">
-      <formula1>"Pass,Fail,未执行,挂起"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/testing/2021-11-27-01/T000017图层参数对话框测试.xlsx
+++ b/docs/testing/2021-11-27-01/T000017图层参数对话框测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\docs\testing\2021-11-27-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C4E551-33EE-47CD-AC19-584D2BA80DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEABA31-D81E-449E-A984-345F56E1E50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{20DA2BEF-9469-4F7D-9F61-3651835C6068}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="79">
   <si>
     <t>编号</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>标签名应为【填充线速度】【填充线最小功率】【填充线最大功率】</t>
+  </si>
+  <si>
+    <t>接2，改变各参数值并点击【保存】按钮</t>
+  </si>
+  <si>
+    <t>再次新建图元并新建图层，然后双击打开新图层的图层参数对话框</t>
+  </si>
+  <si>
+    <t>各数值应与刚保存的参数值一致</t>
+  </si>
+  <si>
+    <t>【雕刻行间距】不一致</t>
   </si>
 </sst>
 </file>
@@ -623,18 +635,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -653,256 +653,23 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1002,41 +769,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3238,27 +2970,27 @@
     <mergeCell ref="V5:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:AO8">
-    <cfRule type="containsText" dxfId="49" priority="8" operator="containsText" text="Suspend">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="Suspend">
       <formula>NOT(ISERROR(SEARCH("Suspend",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="10" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM33:AO42">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM33)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3294,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3420FCF0-6D70-4DA9-8C04-828EBD1DDF9A}">
   <dimension ref="A2:AO115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="AM70" sqref="AM70:AO71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AM78" sqref="AM78:AO79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4327,90 +4059,90 @@
         <v>4</v>
       </c>
       <c r="B26" s="17"/>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="43"/>
-      <c r="AG26" s="43"/>
-      <c r="AH26" s="43"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="43"/>
-      <c r="AL26" s="43"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="43"/>
-      <c r="AO26" s="43"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
     </row>
     <row r="27" spans="1:41" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="51"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
+      <c r="AO27" s="51"/>
     </row>
     <row r="28" spans="1:41" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
@@ -5003,20 +4735,20 @@
       <c r="X42" s="32"/>
       <c r="Y42" s="32"/>
       <c r="Z42" s="33"/>
-      <c r="AA42" s="46" t="s">
+      <c r="AA42" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="47"/>
-      <c r="AH42" s="47"/>
-      <c r="AI42" s="47"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="47"/>
-      <c r="AL42" s="48"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="43"/>
+      <c r="AF42" s="43"/>
+      <c r="AG42" s="43"/>
+      <c r="AH42" s="43"/>
+      <c r="AI42" s="43"/>
+      <c r="AJ42" s="43"/>
+      <c r="AK42" s="43"/>
+      <c r="AL42" s="44"/>
       <c r="AM42" s="37" t="s">
         <v>27</v>
       </c>
@@ -5050,18 +4782,18 @@
       <c r="X43" s="35"/>
       <c r="Y43" s="35"/>
       <c r="Z43" s="36"/>
-      <c r="AA43" s="49"/>
-      <c r="AB43" s="50"/>
-      <c r="AC43" s="50"/>
-      <c r="AD43" s="50"/>
-      <c r="AE43" s="50"/>
-      <c r="AF43" s="50"/>
-      <c r="AG43" s="50"/>
-      <c r="AH43" s="50"/>
-      <c r="AI43" s="50"/>
-      <c r="AJ43" s="50"/>
-      <c r="AK43" s="50"/>
-      <c r="AL43" s="51"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="46"/>
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="46"/>
+      <c r="AI43" s="46"/>
+      <c r="AJ43" s="46"/>
+      <c r="AK43" s="46"/>
+      <c r="AL43" s="47"/>
       <c r="AM43" s="39"/>
       <c r="AN43" s="40"/>
       <c r="AO43" s="40"/>
@@ -5099,20 +4831,20 @@
       <c r="X44" s="32"/>
       <c r="Y44" s="32"/>
       <c r="Z44" s="33"/>
-      <c r="AA44" s="46" t="s">
+      <c r="AA44" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AB44" s="47"/>
-      <c r="AC44" s="47"/>
-      <c r="AD44" s="47"/>
-      <c r="AE44" s="47"/>
-      <c r="AF44" s="47"/>
-      <c r="AG44" s="47"/>
-      <c r="AH44" s="47"/>
-      <c r="AI44" s="47"/>
-      <c r="AJ44" s="47"/>
-      <c r="AK44" s="47"/>
-      <c r="AL44" s="48"/>
+      <c r="AB44" s="43"/>
+      <c r="AC44" s="43"/>
+      <c r="AD44" s="43"/>
+      <c r="AE44" s="43"/>
+      <c r="AF44" s="43"/>
+      <c r="AG44" s="43"/>
+      <c r="AH44" s="43"/>
+      <c r="AI44" s="43"/>
+      <c r="AJ44" s="43"/>
+      <c r="AK44" s="43"/>
+      <c r="AL44" s="44"/>
       <c r="AM44" s="37" t="s">
         <v>27</v>
       </c>
@@ -5146,18 +4878,18 @@
       <c r="X45" s="35"/>
       <c r="Y45" s="35"/>
       <c r="Z45" s="36"/>
-      <c r="AA45" s="49"/>
-      <c r="AB45" s="50"/>
-      <c r="AC45" s="50"/>
-      <c r="AD45" s="50"/>
-      <c r="AE45" s="50"/>
-      <c r="AF45" s="50"/>
-      <c r="AG45" s="50"/>
-      <c r="AH45" s="50"/>
-      <c r="AI45" s="50"/>
-      <c r="AJ45" s="50"/>
-      <c r="AK45" s="50"/>
-      <c r="AL45" s="51"/>
+      <c r="AA45" s="45"/>
+      <c r="AB45" s="46"/>
+      <c r="AC45" s="46"/>
+      <c r="AD45" s="46"/>
+      <c r="AE45" s="46"/>
+      <c r="AF45" s="46"/>
+      <c r="AG45" s="46"/>
+      <c r="AH45" s="46"/>
+      <c r="AI45" s="46"/>
+      <c r="AJ45" s="46"/>
+      <c r="AK45" s="46"/>
+      <c r="AL45" s="47"/>
       <c r="AM45" s="39"/>
       <c r="AN45" s="40"/>
       <c r="AO45" s="40"/>
@@ -5195,20 +4927,20 @@
       <c r="X46" s="32"/>
       <c r="Y46" s="32"/>
       <c r="Z46" s="33"/>
-      <c r="AA46" s="46" t="s">
+      <c r="AA46" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AB46" s="47"/>
-      <c r="AC46" s="47"/>
-      <c r="AD46" s="47"/>
-      <c r="AE46" s="47"/>
-      <c r="AF46" s="47"/>
-      <c r="AG46" s="47"/>
-      <c r="AH46" s="47"/>
-      <c r="AI46" s="47"/>
-      <c r="AJ46" s="47"/>
-      <c r="AK46" s="47"/>
-      <c r="AL46" s="48"/>
+      <c r="AB46" s="43"/>
+      <c r="AC46" s="43"/>
+      <c r="AD46" s="43"/>
+      <c r="AE46" s="43"/>
+      <c r="AF46" s="43"/>
+      <c r="AG46" s="43"/>
+      <c r="AH46" s="43"/>
+      <c r="AI46" s="43"/>
+      <c r="AJ46" s="43"/>
+      <c r="AK46" s="43"/>
+      <c r="AL46" s="44"/>
       <c r="AM46" s="37" t="s">
         <v>27</v>
       </c>
@@ -5242,18 +4974,18 @@
       <c r="X47" s="35"/>
       <c r="Y47" s="35"/>
       <c r="Z47" s="36"/>
-      <c r="AA47" s="49"/>
-      <c r="AB47" s="50"/>
-      <c r="AC47" s="50"/>
-      <c r="AD47" s="50"/>
-      <c r="AE47" s="50"/>
-      <c r="AF47" s="50"/>
-      <c r="AG47" s="50"/>
-      <c r="AH47" s="50"/>
-      <c r="AI47" s="50"/>
-      <c r="AJ47" s="50"/>
-      <c r="AK47" s="50"/>
-      <c r="AL47" s="51"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="46"/>
+      <c r="AC47" s="46"/>
+      <c r="AD47" s="46"/>
+      <c r="AE47" s="46"/>
+      <c r="AF47" s="46"/>
+      <c r="AG47" s="46"/>
+      <c r="AH47" s="46"/>
+      <c r="AI47" s="46"/>
+      <c r="AJ47" s="46"/>
+      <c r="AK47" s="46"/>
+      <c r="AL47" s="47"/>
       <c r="AM47" s="39"/>
       <c r="AN47" s="40"/>
       <c r="AO47" s="40"/>
@@ -5291,20 +5023,20 @@
       <c r="X48" s="32"/>
       <c r="Y48" s="32"/>
       <c r="Z48" s="33"/>
-      <c r="AA48" s="46" t="s">
+      <c r="AA48" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="47"/>
-      <c r="AE48" s="47"/>
-      <c r="AF48" s="47"/>
-      <c r="AG48" s="47"/>
-      <c r="AH48" s="47"/>
-      <c r="AI48" s="47"/>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="47"/>
-      <c r="AL48" s="48"/>
+      <c r="AB48" s="43"/>
+      <c r="AC48" s="43"/>
+      <c r="AD48" s="43"/>
+      <c r="AE48" s="43"/>
+      <c r="AF48" s="43"/>
+      <c r="AG48" s="43"/>
+      <c r="AH48" s="43"/>
+      <c r="AI48" s="43"/>
+      <c r="AJ48" s="43"/>
+      <c r="AK48" s="43"/>
+      <c r="AL48" s="44"/>
       <c r="AM48" s="37" t="s">
         <v>27</v>
       </c>
@@ -5338,18 +5070,18 @@
       <c r="X49" s="35"/>
       <c r="Y49" s="35"/>
       <c r="Z49" s="36"/>
-      <c r="AA49" s="49"/>
-      <c r="AB49" s="50"/>
-      <c r="AC49" s="50"/>
-      <c r="AD49" s="50"/>
-      <c r="AE49" s="50"/>
-      <c r="AF49" s="50"/>
-      <c r="AG49" s="50"/>
-      <c r="AH49" s="50"/>
-      <c r="AI49" s="50"/>
-      <c r="AJ49" s="50"/>
-      <c r="AK49" s="50"/>
-      <c r="AL49" s="51"/>
+      <c r="AA49" s="45"/>
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="46"/>
+      <c r="AD49" s="46"/>
+      <c r="AE49" s="46"/>
+      <c r="AF49" s="46"/>
+      <c r="AG49" s="46"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="46"/>
+      <c r="AK49" s="46"/>
+      <c r="AL49" s="47"/>
       <c r="AM49" s="39"/>
       <c r="AN49" s="40"/>
       <c r="AO49" s="40"/>
@@ -5387,20 +5119,20 @@
       <c r="X50" s="32"/>
       <c r="Y50" s="32"/>
       <c r="Z50" s="33"/>
-      <c r="AA50" s="46" t="s">
+      <c r="AA50" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB50" s="47"/>
-      <c r="AC50" s="47"/>
-      <c r="AD50" s="47"/>
-      <c r="AE50" s="47"/>
-      <c r="AF50" s="47"/>
-      <c r="AG50" s="47"/>
-      <c r="AH50" s="47"/>
-      <c r="AI50" s="47"/>
-      <c r="AJ50" s="47"/>
-      <c r="AK50" s="47"/>
-      <c r="AL50" s="48"/>
+      <c r="AB50" s="43"/>
+      <c r="AC50" s="43"/>
+      <c r="AD50" s="43"/>
+      <c r="AE50" s="43"/>
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="43"/>
+      <c r="AH50" s="43"/>
+      <c r="AI50" s="43"/>
+      <c r="AJ50" s="43"/>
+      <c r="AK50" s="43"/>
+      <c r="AL50" s="44"/>
       <c r="AM50" s="37" t="s">
         <v>27</v>
       </c>
@@ -5434,18 +5166,18 @@
       <c r="X51" s="35"/>
       <c r="Y51" s="35"/>
       <c r="Z51" s="36"/>
-      <c r="AA51" s="49"/>
-      <c r="AB51" s="50"/>
-      <c r="AC51" s="50"/>
-      <c r="AD51" s="50"/>
-      <c r="AE51" s="50"/>
-      <c r="AF51" s="50"/>
-      <c r="AG51" s="50"/>
-      <c r="AH51" s="50"/>
-      <c r="AI51" s="50"/>
-      <c r="AJ51" s="50"/>
-      <c r="AK51" s="50"/>
-      <c r="AL51" s="51"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46"/>
+      <c r="AD51" s="46"/>
+      <c r="AE51" s="46"/>
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="46"/>
+      <c r="AH51" s="46"/>
+      <c r="AI51" s="46"/>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="46"/>
+      <c r="AL51" s="47"/>
       <c r="AM51" s="39"/>
       <c r="AN51" s="40"/>
       <c r="AO51" s="40"/>
@@ -5483,20 +5215,20 @@
       <c r="X52" s="32"/>
       <c r="Y52" s="32"/>
       <c r="Z52" s="33"/>
-      <c r="AA52" s="46" t="s">
+      <c r="AA52" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB52" s="47"/>
-      <c r="AC52" s="47"/>
-      <c r="AD52" s="47"/>
-      <c r="AE52" s="47"/>
-      <c r="AF52" s="47"/>
-      <c r="AG52" s="47"/>
-      <c r="AH52" s="47"/>
-      <c r="AI52" s="47"/>
-      <c r="AJ52" s="47"/>
-      <c r="AK52" s="47"/>
-      <c r="AL52" s="48"/>
+      <c r="AB52" s="43"/>
+      <c r="AC52" s="43"/>
+      <c r="AD52" s="43"/>
+      <c r="AE52" s="43"/>
+      <c r="AF52" s="43"/>
+      <c r="AG52" s="43"/>
+      <c r="AH52" s="43"/>
+      <c r="AI52" s="43"/>
+      <c r="AJ52" s="43"/>
+      <c r="AK52" s="43"/>
+      <c r="AL52" s="44"/>
       <c r="AM52" s="37" t="s">
         <v>27</v>
       </c>
@@ -5530,18 +5262,18 @@
       <c r="X53" s="35"/>
       <c r="Y53" s="35"/>
       <c r="Z53" s="36"/>
-      <c r="AA53" s="49"/>
-      <c r="AB53" s="50"/>
-      <c r="AC53" s="50"/>
-      <c r="AD53" s="50"/>
-      <c r="AE53" s="50"/>
-      <c r="AF53" s="50"/>
-      <c r="AG53" s="50"/>
-      <c r="AH53" s="50"/>
-      <c r="AI53" s="50"/>
-      <c r="AJ53" s="50"/>
-      <c r="AK53" s="50"/>
-      <c r="AL53" s="51"/>
+      <c r="AA53" s="45"/>
+      <c r="AB53" s="46"/>
+      <c r="AC53" s="46"/>
+      <c r="AD53" s="46"/>
+      <c r="AE53" s="46"/>
+      <c r="AF53" s="46"/>
+      <c r="AG53" s="46"/>
+      <c r="AH53" s="46"/>
+      <c r="AI53" s="46"/>
+      <c r="AJ53" s="46"/>
+      <c r="AK53" s="46"/>
+      <c r="AL53" s="47"/>
       <c r="AM53" s="39"/>
       <c r="AN53" s="40"/>
       <c r="AO53" s="40"/>
@@ -5579,20 +5311,20 @@
       <c r="X54" s="32"/>
       <c r="Y54" s="32"/>
       <c r="Z54" s="33"/>
-      <c r="AA54" s="46" t="s">
+      <c r="AA54" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB54" s="47"/>
-      <c r="AC54" s="47"/>
-      <c r="AD54" s="47"/>
-      <c r="AE54" s="47"/>
-      <c r="AF54" s="47"/>
-      <c r="AG54" s="47"/>
-      <c r="AH54" s="47"/>
-      <c r="AI54" s="47"/>
-      <c r="AJ54" s="47"/>
-      <c r="AK54" s="47"/>
-      <c r="AL54" s="48"/>
+      <c r="AB54" s="43"/>
+      <c r="AC54" s="43"/>
+      <c r="AD54" s="43"/>
+      <c r="AE54" s="43"/>
+      <c r="AF54" s="43"/>
+      <c r="AG54" s="43"/>
+      <c r="AH54" s="43"/>
+      <c r="AI54" s="43"/>
+      <c r="AJ54" s="43"/>
+      <c r="AK54" s="43"/>
+      <c r="AL54" s="44"/>
       <c r="AM54" s="37" t="s">
         <v>27</v>
       </c>
@@ -5626,18 +5358,18 @@
       <c r="X55" s="35"/>
       <c r="Y55" s="35"/>
       <c r="Z55" s="36"/>
-      <c r="AA55" s="49"/>
-      <c r="AB55" s="50"/>
-      <c r="AC55" s="50"/>
-      <c r="AD55" s="50"/>
-      <c r="AE55" s="50"/>
-      <c r="AF55" s="50"/>
-      <c r="AG55" s="50"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="50"/>
-      <c r="AJ55" s="50"/>
-      <c r="AK55" s="50"/>
-      <c r="AL55" s="51"/>
+      <c r="AA55" s="45"/>
+      <c r="AB55" s="46"/>
+      <c r="AC55" s="46"/>
+      <c r="AD55" s="46"/>
+      <c r="AE55" s="46"/>
+      <c r="AF55" s="46"/>
+      <c r="AG55" s="46"/>
+      <c r="AH55" s="46"/>
+      <c r="AI55" s="46"/>
+      <c r="AJ55" s="46"/>
+      <c r="AK55" s="46"/>
+      <c r="AL55" s="47"/>
       <c r="AM55" s="39"/>
       <c r="AN55" s="40"/>
       <c r="AO55" s="40"/>
@@ -5675,20 +5407,20 @@
       <c r="X56" s="32"/>
       <c r="Y56" s="32"/>
       <c r="Z56" s="33"/>
-      <c r="AA56" s="46" t="s">
+      <c r="AA56" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
-      <c r="AD56" s="47"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="47"/>
-      <c r="AH56" s="47"/>
-      <c r="AI56" s="47"/>
-      <c r="AJ56" s="47"/>
-      <c r="AK56" s="47"/>
-      <c r="AL56" s="48"/>
+      <c r="AB56" s="43"/>
+      <c r="AC56" s="43"/>
+      <c r="AD56" s="43"/>
+      <c r="AE56" s="43"/>
+      <c r="AF56" s="43"/>
+      <c r="AG56" s="43"/>
+      <c r="AH56" s="43"/>
+      <c r="AI56" s="43"/>
+      <c r="AJ56" s="43"/>
+      <c r="AK56" s="43"/>
+      <c r="AL56" s="44"/>
       <c r="AM56" s="37" t="s">
         <v>27</v>
       </c>
@@ -5722,18 +5454,18 @@
       <c r="X57" s="35"/>
       <c r="Y57" s="35"/>
       <c r="Z57" s="36"/>
-      <c r="AA57" s="49"/>
-      <c r="AB57" s="50"/>
-      <c r="AC57" s="50"/>
-      <c r="AD57" s="50"/>
-      <c r="AE57" s="50"/>
-      <c r="AF57" s="50"/>
-      <c r="AG57" s="50"/>
-      <c r="AH57" s="50"/>
-      <c r="AI57" s="50"/>
-      <c r="AJ57" s="50"/>
-      <c r="AK57" s="50"/>
-      <c r="AL57" s="51"/>
+      <c r="AA57" s="45"/>
+      <c r="AB57" s="46"/>
+      <c r="AC57" s="46"/>
+      <c r="AD57" s="46"/>
+      <c r="AE57" s="46"/>
+      <c r="AF57" s="46"/>
+      <c r="AG57" s="46"/>
+      <c r="AH57" s="46"/>
+      <c r="AI57" s="46"/>
+      <c r="AJ57" s="46"/>
+      <c r="AK57" s="46"/>
+      <c r="AL57" s="47"/>
       <c r="AM57" s="39"/>
       <c r="AN57" s="40"/>
       <c r="AO57" s="40"/>
@@ -5771,20 +5503,20 @@
       <c r="X58" s="32"/>
       <c r="Y58" s="32"/>
       <c r="Z58" s="33"/>
-      <c r="AA58" s="46" t="s">
+      <c r="AA58" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB58" s="47"/>
-      <c r="AC58" s="47"/>
-      <c r="AD58" s="47"/>
-      <c r="AE58" s="47"/>
-      <c r="AF58" s="47"/>
-      <c r="AG58" s="47"/>
-      <c r="AH58" s="47"/>
-      <c r="AI58" s="47"/>
-      <c r="AJ58" s="47"/>
-      <c r="AK58" s="47"/>
-      <c r="AL58" s="48"/>
+      <c r="AB58" s="43"/>
+      <c r="AC58" s="43"/>
+      <c r="AD58" s="43"/>
+      <c r="AE58" s="43"/>
+      <c r="AF58" s="43"/>
+      <c r="AG58" s="43"/>
+      <c r="AH58" s="43"/>
+      <c r="AI58" s="43"/>
+      <c r="AJ58" s="43"/>
+      <c r="AK58" s="43"/>
+      <c r="AL58" s="44"/>
       <c r="AM58" s="37" t="s">
         <v>27</v>
       </c>
@@ -5818,18 +5550,18 @@
       <c r="X59" s="35"/>
       <c r="Y59" s="35"/>
       <c r="Z59" s="36"/>
-      <c r="AA59" s="49"/>
-      <c r="AB59" s="50"/>
-      <c r="AC59" s="50"/>
-      <c r="AD59" s="50"/>
-      <c r="AE59" s="50"/>
-      <c r="AF59" s="50"/>
-      <c r="AG59" s="50"/>
-      <c r="AH59" s="50"/>
-      <c r="AI59" s="50"/>
-      <c r="AJ59" s="50"/>
-      <c r="AK59" s="50"/>
-      <c r="AL59" s="51"/>
+      <c r="AA59" s="45"/>
+      <c r="AB59" s="46"/>
+      <c r="AC59" s="46"/>
+      <c r="AD59" s="46"/>
+      <c r="AE59" s="46"/>
+      <c r="AF59" s="46"/>
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="46"/>
+      <c r="AI59" s="46"/>
+      <c r="AJ59" s="46"/>
+      <c r="AK59" s="46"/>
+      <c r="AL59" s="47"/>
       <c r="AM59" s="39"/>
       <c r="AN59" s="40"/>
       <c r="AO59" s="40"/>
@@ -5867,18 +5599,18 @@
       <c r="X60" s="32"/>
       <c r="Y60" s="32"/>
       <c r="Z60" s="33"/>
-      <c r="AA60" s="46"/>
-      <c r="AB60" s="47"/>
-      <c r="AC60" s="47"/>
-      <c r="AD60" s="47"/>
-      <c r="AE60" s="47"/>
-      <c r="AF60" s="47"/>
-      <c r="AG60" s="47"/>
-      <c r="AH60" s="47"/>
-      <c r="AI60" s="47"/>
-      <c r="AJ60" s="47"/>
-      <c r="AK60" s="47"/>
-      <c r="AL60" s="48"/>
+      <c r="AA60" s="42"/>
+      <c r="AB60" s="43"/>
+      <c r="AC60" s="43"/>
+      <c r="AD60" s="43"/>
+      <c r="AE60" s="43"/>
+      <c r="AF60" s="43"/>
+      <c r="AG60" s="43"/>
+      <c r="AH60" s="43"/>
+      <c r="AI60" s="43"/>
+      <c r="AJ60" s="43"/>
+      <c r="AK60" s="43"/>
+      <c r="AL60" s="44"/>
       <c r="AM60" s="37" t="s">
         <v>27</v>
       </c>
@@ -5912,18 +5644,18 @@
       <c r="X61" s="35"/>
       <c r="Y61" s="35"/>
       <c r="Z61" s="36"/>
-      <c r="AA61" s="49"/>
-      <c r="AB61" s="50"/>
-      <c r="AC61" s="50"/>
-      <c r="AD61" s="50"/>
-      <c r="AE61" s="50"/>
-      <c r="AF61" s="50"/>
-      <c r="AG61" s="50"/>
-      <c r="AH61" s="50"/>
-      <c r="AI61" s="50"/>
-      <c r="AJ61" s="50"/>
-      <c r="AK61" s="50"/>
-      <c r="AL61" s="51"/>
+      <c r="AA61" s="45"/>
+      <c r="AB61" s="46"/>
+      <c r="AC61" s="46"/>
+      <c r="AD61" s="46"/>
+      <c r="AE61" s="46"/>
+      <c r="AF61" s="46"/>
+      <c r="AG61" s="46"/>
+      <c r="AH61" s="46"/>
+      <c r="AI61" s="46"/>
+      <c r="AJ61" s="46"/>
+      <c r="AK61" s="46"/>
+      <c r="AL61" s="47"/>
       <c r="AM61" s="39"/>
       <c r="AN61" s="40"/>
       <c r="AO61" s="40"/>
@@ -5961,20 +5693,20 @@
       <c r="X62" s="32"/>
       <c r="Y62" s="32"/>
       <c r="Z62" s="33"/>
-      <c r="AA62" s="46" t="s">
+      <c r="AA62" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AB62" s="47"/>
-      <c r="AC62" s="47"/>
-      <c r="AD62" s="47"/>
-      <c r="AE62" s="47"/>
-      <c r="AF62" s="47"/>
-      <c r="AG62" s="47"/>
-      <c r="AH62" s="47"/>
-      <c r="AI62" s="47"/>
-      <c r="AJ62" s="47"/>
-      <c r="AK62" s="47"/>
-      <c r="AL62" s="48"/>
+      <c r="AB62" s="43"/>
+      <c r="AC62" s="43"/>
+      <c r="AD62" s="43"/>
+      <c r="AE62" s="43"/>
+      <c r="AF62" s="43"/>
+      <c r="AG62" s="43"/>
+      <c r="AH62" s="43"/>
+      <c r="AI62" s="43"/>
+      <c r="AJ62" s="43"/>
+      <c r="AK62" s="43"/>
+      <c r="AL62" s="44"/>
       <c r="AM62" s="37" t="s">
         <v>27</v>
       </c>
@@ -6008,18 +5740,18 @@
       <c r="X63" s="35"/>
       <c r="Y63" s="35"/>
       <c r="Z63" s="36"/>
-      <c r="AA63" s="49"/>
-      <c r="AB63" s="50"/>
-      <c r="AC63" s="50"/>
-      <c r="AD63" s="50"/>
-      <c r="AE63" s="50"/>
-      <c r="AF63" s="50"/>
-      <c r="AG63" s="50"/>
-      <c r="AH63" s="50"/>
-      <c r="AI63" s="50"/>
-      <c r="AJ63" s="50"/>
-      <c r="AK63" s="50"/>
-      <c r="AL63" s="51"/>
+      <c r="AA63" s="45"/>
+      <c r="AB63" s="46"/>
+      <c r="AC63" s="46"/>
+      <c r="AD63" s="46"/>
+      <c r="AE63" s="46"/>
+      <c r="AF63" s="46"/>
+      <c r="AG63" s="46"/>
+      <c r="AH63" s="46"/>
+      <c r="AI63" s="46"/>
+      <c r="AJ63" s="46"/>
+      <c r="AK63" s="46"/>
+      <c r="AL63" s="47"/>
       <c r="AM63" s="39"/>
       <c r="AN63" s="40"/>
       <c r="AO63" s="40"/>
@@ -6057,20 +5789,20 @@
       <c r="X64" s="32"/>
       <c r="Y64" s="32"/>
       <c r="Z64" s="33"/>
-      <c r="AA64" s="46" t="s">
+      <c r="AA64" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB64" s="47"/>
-      <c r="AC64" s="47"/>
-      <c r="AD64" s="47"/>
-      <c r="AE64" s="47"/>
-      <c r="AF64" s="47"/>
-      <c r="AG64" s="47"/>
-      <c r="AH64" s="47"/>
-      <c r="AI64" s="47"/>
-      <c r="AJ64" s="47"/>
-      <c r="AK64" s="47"/>
-      <c r="AL64" s="48"/>
+      <c r="AB64" s="43"/>
+      <c r="AC64" s="43"/>
+      <c r="AD64" s="43"/>
+      <c r="AE64" s="43"/>
+      <c r="AF64" s="43"/>
+      <c r="AG64" s="43"/>
+      <c r="AH64" s="43"/>
+      <c r="AI64" s="43"/>
+      <c r="AJ64" s="43"/>
+      <c r="AK64" s="43"/>
+      <c r="AL64" s="44"/>
       <c r="AM64" s="37" t="s">
         <v>27</v>
       </c>
@@ -6104,18 +5836,18 @@
       <c r="X65" s="35"/>
       <c r="Y65" s="35"/>
       <c r="Z65" s="36"/>
-      <c r="AA65" s="49"/>
-      <c r="AB65" s="50"/>
-      <c r="AC65" s="50"/>
-      <c r="AD65" s="50"/>
-      <c r="AE65" s="50"/>
-      <c r="AF65" s="50"/>
-      <c r="AG65" s="50"/>
-      <c r="AH65" s="50"/>
-      <c r="AI65" s="50"/>
-      <c r="AJ65" s="50"/>
-      <c r="AK65" s="50"/>
-      <c r="AL65" s="51"/>
+      <c r="AA65" s="45"/>
+      <c r="AB65" s="46"/>
+      <c r="AC65" s="46"/>
+      <c r="AD65" s="46"/>
+      <c r="AE65" s="46"/>
+      <c r="AF65" s="46"/>
+      <c r="AG65" s="46"/>
+      <c r="AH65" s="46"/>
+      <c r="AI65" s="46"/>
+      <c r="AJ65" s="46"/>
+      <c r="AK65" s="46"/>
+      <c r="AL65" s="47"/>
       <c r="AM65" s="39"/>
       <c r="AN65" s="40"/>
       <c r="AO65" s="40"/>
@@ -6153,20 +5885,20 @@
       <c r="X66" s="32"/>
       <c r="Y66" s="32"/>
       <c r="Z66" s="33"/>
-      <c r="AA66" s="46" t="s">
+      <c r="AA66" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB66" s="47"/>
-      <c r="AC66" s="47"/>
-      <c r="AD66" s="47"/>
-      <c r="AE66" s="47"/>
-      <c r="AF66" s="47"/>
-      <c r="AG66" s="47"/>
-      <c r="AH66" s="47"/>
-      <c r="AI66" s="47"/>
-      <c r="AJ66" s="47"/>
-      <c r="AK66" s="47"/>
-      <c r="AL66" s="48"/>
+      <c r="AB66" s="43"/>
+      <c r="AC66" s="43"/>
+      <c r="AD66" s="43"/>
+      <c r="AE66" s="43"/>
+      <c r="AF66" s="43"/>
+      <c r="AG66" s="43"/>
+      <c r="AH66" s="43"/>
+      <c r="AI66" s="43"/>
+      <c r="AJ66" s="43"/>
+      <c r="AK66" s="43"/>
+      <c r="AL66" s="44"/>
       <c r="AM66" s="37" t="s">
         <v>27</v>
       </c>
@@ -6200,18 +5932,18 @@
       <c r="X67" s="35"/>
       <c r="Y67" s="35"/>
       <c r="Z67" s="36"/>
-      <c r="AA67" s="49"/>
-      <c r="AB67" s="50"/>
-      <c r="AC67" s="50"/>
-      <c r="AD67" s="50"/>
-      <c r="AE67" s="50"/>
-      <c r="AF67" s="50"/>
-      <c r="AG67" s="50"/>
-      <c r="AH67" s="50"/>
-      <c r="AI67" s="50"/>
-      <c r="AJ67" s="50"/>
-      <c r="AK67" s="50"/>
-      <c r="AL67" s="51"/>
+      <c r="AA67" s="45"/>
+      <c r="AB67" s="46"/>
+      <c r="AC67" s="46"/>
+      <c r="AD67" s="46"/>
+      <c r="AE67" s="46"/>
+      <c r="AF67" s="46"/>
+      <c r="AG67" s="46"/>
+      <c r="AH67" s="46"/>
+      <c r="AI67" s="46"/>
+      <c r="AJ67" s="46"/>
+      <c r="AK67" s="46"/>
+      <c r="AL67" s="47"/>
       <c r="AM67" s="39"/>
       <c r="AN67" s="40"/>
       <c r="AO67" s="40"/>
@@ -6249,20 +5981,20 @@
       <c r="X68" s="32"/>
       <c r="Y68" s="32"/>
       <c r="Z68" s="33"/>
-      <c r="AA68" s="46" t="s">
+      <c r="AA68" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB68" s="47"/>
-      <c r="AC68" s="47"/>
-      <c r="AD68" s="47"/>
-      <c r="AE68" s="47"/>
-      <c r="AF68" s="47"/>
-      <c r="AG68" s="47"/>
-      <c r="AH68" s="47"/>
-      <c r="AI68" s="47"/>
-      <c r="AJ68" s="47"/>
-      <c r="AK68" s="47"/>
-      <c r="AL68" s="48"/>
+      <c r="AB68" s="43"/>
+      <c r="AC68" s="43"/>
+      <c r="AD68" s="43"/>
+      <c r="AE68" s="43"/>
+      <c r="AF68" s="43"/>
+      <c r="AG68" s="43"/>
+      <c r="AH68" s="43"/>
+      <c r="AI68" s="43"/>
+      <c r="AJ68" s="43"/>
+      <c r="AK68" s="43"/>
+      <c r="AL68" s="44"/>
       <c r="AM68" s="37" t="s">
         <v>27</v>
       </c>
@@ -6296,18 +6028,18 @@
       <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
       <c r="Z69" s="36"/>
-      <c r="AA69" s="49"/>
-      <c r="AB69" s="50"/>
-      <c r="AC69" s="50"/>
-      <c r="AD69" s="50"/>
-      <c r="AE69" s="50"/>
-      <c r="AF69" s="50"/>
-      <c r="AG69" s="50"/>
-      <c r="AH69" s="50"/>
-      <c r="AI69" s="50"/>
-      <c r="AJ69" s="50"/>
-      <c r="AK69" s="50"/>
-      <c r="AL69" s="51"/>
+      <c r="AA69" s="45"/>
+      <c r="AB69" s="46"/>
+      <c r="AC69" s="46"/>
+      <c r="AD69" s="46"/>
+      <c r="AE69" s="46"/>
+      <c r="AF69" s="46"/>
+      <c r="AG69" s="46"/>
+      <c r="AH69" s="46"/>
+      <c r="AI69" s="46"/>
+      <c r="AJ69" s="46"/>
+      <c r="AK69" s="46"/>
+      <c r="AL69" s="47"/>
       <c r="AM69" s="39"/>
       <c r="AN69" s="40"/>
       <c r="AO69" s="40"/>
@@ -6345,20 +6077,20 @@
       <c r="X70" s="32"/>
       <c r="Y70" s="32"/>
       <c r="Z70" s="33"/>
-      <c r="AA70" s="46" t="s">
+      <c r="AA70" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB70" s="47"/>
-      <c r="AC70" s="47"/>
-      <c r="AD70" s="47"/>
-      <c r="AE70" s="47"/>
-      <c r="AF70" s="47"/>
-      <c r="AG70" s="47"/>
-      <c r="AH70" s="47"/>
-      <c r="AI70" s="47"/>
-      <c r="AJ70" s="47"/>
-      <c r="AK70" s="47"/>
-      <c r="AL70" s="48"/>
+      <c r="AB70" s="43"/>
+      <c r="AC70" s="43"/>
+      <c r="AD70" s="43"/>
+      <c r="AE70" s="43"/>
+      <c r="AF70" s="43"/>
+      <c r="AG70" s="43"/>
+      <c r="AH70" s="43"/>
+      <c r="AI70" s="43"/>
+      <c r="AJ70" s="43"/>
+      <c r="AK70" s="43"/>
+      <c r="AL70" s="44"/>
       <c r="AM70" s="37" t="s">
         <v>27</v>
       </c>
@@ -6392,18 +6124,18 @@
       <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
       <c r="Z71" s="36"/>
-      <c r="AA71" s="49"/>
-      <c r="AB71" s="50"/>
-      <c r="AC71" s="50"/>
-      <c r="AD71" s="50"/>
-      <c r="AE71" s="50"/>
-      <c r="AF71" s="50"/>
-      <c r="AG71" s="50"/>
-      <c r="AH71" s="50"/>
-      <c r="AI71" s="50"/>
-      <c r="AJ71" s="50"/>
-      <c r="AK71" s="50"/>
-      <c r="AL71" s="51"/>
+      <c r="AA71" s="45"/>
+      <c r="AB71" s="46"/>
+      <c r="AC71" s="46"/>
+      <c r="AD71" s="46"/>
+      <c r="AE71" s="46"/>
+      <c r="AF71" s="46"/>
+      <c r="AG71" s="46"/>
+      <c r="AH71" s="46"/>
+      <c r="AI71" s="46"/>
+      <c r="AJ71" s="46"/>
+      <c r="AK71" s="46"/>
+      <c r="AL71" s="47"/>
       <c r="AM71" s="39"/>
       <c r="AN71" s="40"/>
       <c r="AO71" s="40"/>
@@ -6441,20 +6173,20 @@
       <c r="X72" s="32"/>
       <c r="Y72" s="32"/>
       <c r="Z72" s="33"/>
-      <c r="AA72" s="46" t="s">
+      <c r="AA72" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB72" s="47"/>
-      <c r="AC72" s="47"/>
-      <c r="AD72" s="47"/>
-      <c r="AE72" s="47"/>
-      <c r="AF72" s="47"/>
-      <c r="AG72" s="47"/>
-      <c r="AH72" s="47"/>
-      <c r="AI72" s="47"/>
-      <c r="AJ72" s="47"/>
-      <c r="AK72" s="47"/>
-      <c r="AL72" s="48"/>
+      <c r="AB72" s="43"/>
+      <c r="AC72" s="43"/>
+      <c r="AD72" s="43"/>
+      <c r="AE72" s="43"/>
+      <c r="AF72" s="43"/>
+      <c r="AG72" s="43"/>
+      <c r="AH72" s="43"/>
+      <c r="AI72" s="43"/>
+      <c r="AJ72" s="43"/>
+      <c r="AK72" s="43"/>
+      <c r="AL72" s="44"/>
       <c r="AM72" s="37" t="s">
         <v>27</v>
       </c>
@@ -6488,18 +6220,18 @@
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
       <c r="Z73" s="36"/>
-      <c r="AA73" s="49"/>
-      <c r="AB73" s="50"/>
-      <c r="AC73" s="50"/>
-      <c r="AD73" s="50"/>
-      <c r="AE73" s="50"/>
-      <c r="AF73" s="50"/>
-      <c r="AG73" s="50"/>
-      <c r="AH73" s="50"/>
-      <c r="AI73" s="50"/>
-      <c r="AJ73" s="50"/>
-      <c r="AK73" s="50"/>
-      <c r="AL73" s="51"/>
+      <c r="AA73" s="45"/>
+      <c r="AB73" s="46"/>
+      <c r="AC73" s="46"/>
+      <c r="AD73" s="46"/>
+      <c r="AE73" s="46"/>
+      <c r="AF73" s="46"/>
+      <c r="AG73" s="46"/>
+      <c r="AH73" s="46"/>
+      <c r="AI73" s="46"/>
+      <c r="AJ73" s="46"/>
+      <c r="AK73" s="46"/>
+      <c r="AL73" s="47"/>
       <c r="AM73" s="39"/>
       <c r="AN73" s="40"/>
       <c r="AO73" s="40"/>
@@ -6537,20 +6269,20 @@
       <c r="X74" s="32"/>
       <c r="Y74" s="32"/>
       <c r="Z74" s="33"/>
-      <c r="AA74" s="46" t="s">
+      <c r="AA74" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AB74" s="47"/>
-      <c r="AC74" s="47"/>
-      <c r="AD74" s="47"/>
-      <c r="AE74" s="47"/>
-      <c r="AF74" s="47"/>
-      <c r="AG74" s="47"/>
-      <c r="AH74" s="47"/>
-      <c r="AI74" s="47"/>
-      <c r="AJ74" s="47"/>
-      <c r="AK74" s="47"/>
-      <c r="AL74" s="48"/>
+      <c r="AB74" s="43"/>
+      <c r="AC74" s="43"/>
+      <c r="AD74" s="43"/>
+      <c r="AE74" s="43"/>
+      <c r="AF74" s="43"/>
+      <c r="AG74" s="43"/>
+      <c r="AH74" s="43"/>
+      <c r="AI74" s="43"/>
+      <c r="AJ74" s="43"/>
+      <c r="AK74" s="43"/>
+      <c r="AL74" s="44"/>
       <c r="AM74" s="37" t="s">
         <v>27</v>
       </c>
@@ -6584,18 +6316,18 @@
       <c r="X75" s="35"/>
       <c r="Y75" s="35"/>
       <c r="Z75" s="36"/>
-      <c r="AA75" s="49"/>
-      <c r="AB75" s="50"/>
-      <c r="AC75" s="50"/>
-      <c r="AD75" s="50"/>
-      <c r="AE75" s="50"/>
-      <c r="AF75" s="50"/>
-      <c r="AG75" s="50"/>
-      <c r="AH75" s="50"/>
-      <c r="AI75" s="50"/>
-      <c r="AJ75" s="50"/>
-      <c r="AK75" s="50"/>
-      <c r="AL75" s="51"/>
+      <c r="AA75" s="45"/>
+      <c r="AB75" s="46"/>
+      <c r="AC75" s="46"/>
+      <c r="AD75" s="46"/>
+      <c r="AE75" s="46"/>
+      <c r="AF75" s="46"/>
+      <c r="AG75" s="46"/>
+      <c r="AH75" s="46"/>
+      <c r="AI75" s="46"/>
+      <c r="AJ75" s="46"/>
+      <c r="AK75" s="46"/>
+      <c r="AL75" s="47"/>
       <c r="AM75" s="39"/>
       <c r="AN75" s="40"/>
       <c r="AO75" s="40"/>
@@ -6605,7 +6337,9 @@
         <v>20</v>
       </c>
       <c r="B76" s="17"/>
-      <c r="C76" s="31"/>
+      <c r="C76" s="31" t="s">
+        <v>75</v>
+      </c>
       <c r="D76" s="32"/>
       <c r="E76" s="32"/>
       <c r="F76" s="32"/>
@@ -6641,7 +6375,9 @@
       <c r="AJ76" s="32"/>
       <c r="AK76" s="32"/>
       <c r="AL76" s="33"/>
-      <c r="AM76" s="37"/>
+      <c r="AM76" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN76" s="38"/>
       <c r="AO76" s="38"/>
     </row>
@@ -6693,7 +6429,9 @@
         <v>21</v>
       </c>
       <c r="B78" s="17"/>
-      <c r="C78" s="31"/>
+      <c r="C78" s="31" t="s">
+        <v>76</v>
+      </c>
       <c r="D78" s="32"/>
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
@@ -6705,7 +6443,9 @@
       <c r="L78" s="32"/>
       <c r="M78" s="32"/>
       <c r="N78" s="33"/>
-      <c r="O78" s="31"/>
+      <c r="O78" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="P78" s="32"/>
       <c r="Q78" s="32"/>
       <c r="R78" s="32"/>
@@ -6717,19 +6457,23 @@
       <c r="X78" s="32"/>
       <c r="Y78" s="32"/>
       <c r="Z78" s="33"/>
-      <c r="AA78" s="31"/>
-      <c r="AB78" s="32"/>
-      <c r="AC78" s="32"/>
-      <c r="AD78" s="32"/>
-      <c r="AE78" s="32"/>
-      <c r="AF78" s="32"/>
-      <c r="AG78" s="32"/>
-      <c r="AH78" s="32"/>
-      <c r="AI78" s="32"/>
-      <c r="AJ78" s="32"/>
-      <c r="AK78" s="32"/>
-      <c r="AL78" s="33"/>
-      <c r="AM78" s="37"/>
+      <c r="AA78" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB78" s="43"/>
+      <c r="AC78" s="43"/>
+      <c r="AD78" s="43"/>
+      <c r="AE78" s="43"/>
+      <c r="AF78" s="43"/>
+      <c r="AG78" s="43"/>
+      <c r="AH78" s="43"/>
+      <c r="AI78" s="43"/>
+      <c r="AJ78" s="43"/>
+      <c r="AK78" s="43"/>
+      <c r="AL78" s="44"/>
+      <c r="AM78" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN78" s="38"/>
       <c r="AO78" s="38"/>
     </row>
@@ -6760,18 +6504,18 @@
       <c r="X79" s="35"/>
       <c r="Y79" s="35"/>
       <c r="Z79" s="36"/>
-      <c r="AA79" s="34"/>
-      <c r="AB79" s="35"/>
-      <c r="AC79" s="35"/>
-      <c r="AD79" s="35"/>
-      <c r="AE79" s="35"/>
-      <c r="AF79" s="35"/>
-      <c r="AG79" s="35"/>
-      <c r="AH79" s="35"/>
-      <c r="AI79" s="35"/>
-      <c r="AJ79" s="35"/>
-      <c r="AK79" s="35"/>
-      <c r="AL79" s="36"/>
+      <c r="AA79" s="45"/>
+      <c r="AB79" s="46"/>
+      <c r="AC79" s="46"/>
+      <c r="AD79" s="46"/>
+      <c r="AE79" s="46"/>
+      <c r="AF79" s="46"/>
+      <c r="AG79" s="46"/>
+      <c r="AH79" s="46"/>
+      <c r="AI79" s="46"/>
+      <c r="AJ79" s="46"/>
+      <c r="AK79" s="46"/>
+      <c r="AL79" s="47"/>
       <c r="AM79" s="39"/>
       <c r="AN79" s="40"/>
       <c r="AO79" s="40"/>
@@ -8627,27 +8371,27 @@
     <mergeCell ref="AM108:AO109"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:AO8">
-    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="Suspend">
+    <cfRule type="containsText" dxfId="10" priority="42" operator="containsText" text="Suspend">
       <formula>NOT(ISERROR(SEARCH("Suspend",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="43" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="44" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="8" priority="44" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM76:AO115 AM38:AO61">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="7" priority="33" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="6" priority="34" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="5" priority="35" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="4" priority="36" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM38)))</formula>
     </cfRule>
   </conditionalFormatting>
